--- a/StructureDefinition-ext-R5-MedicinalProductDefinition.contact.xlsx
+++ b/StructureDefinition-ext-R5-MedicinalProductDefinition.contact.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -340,7 +340,7 @@
     <t>Allows the contact to be classified, for example QPPV, Pharmacovigilance Enquiry Information.</t>
   </si>
   <si>
-    <t>Element `MedicinalProductDefinition.contact.type` is mapped to FHIR R4 structure `MedicinalProduct`, but has no target element specified.</t>
+    <t>Element `MedicinalProductDefinition.contact.type` is will have a context of MedicinalProduct.contact based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -425,7 +425,8 @@
     <t>contact</t>
   </si>
   <si>
-    <t>Element `MedicinalProductDefinition.contact.contact` is mapped to FHIR R4 structure `MedicinalProduct`, but has no target element specified.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicinalProductDefinition.contact.contact` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `MedicinalProductDefinition.contact.contact` is will have a context of MedicinalProduct.contact based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>Extension.extension:contact.id</t>
@@ -791,7 +792,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="115.3828125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="207.10546875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-MedicinalProductDefinition.contact.xlsx
+++ b/StructureDefinition-ext-R5-MedicinalProductDefinition.contact.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="141">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `MedicinalProductDefinition.contact` 0..* `BackboneElement`
 *  R4: `MedicinalProduct.contact` 0..* `Reference(http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/PractitionerRole)`
 Following are the generation technical comments:
-Element `MedicinalProductDefinition.contact` is mapped to FHIR R4 element `MedicinalProduct.contact`.</t>
+Element `MedicinalProductDefinition.contact` has is mapped to FHIR R4 element `MedicinalProduct.contact`, but has no comparisons.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -340,7 +340,8 @@
     <t>Allows the contact to be classified, for example QPPV, Pharmacovigilance Enquiry Information.</t>
   </si>
   <si>
-    <t>Element `MedicinalProductDefinition.contact.type` is will have a context of MedicinalProduct.contact based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
+    <t>Element `MedicinalProductDefinition.contact.type` is part of an existing definition because parent element `MedicinalProductDefinition.contact` requires a cross-version extension.
+Element `MedicinalProductDefinition.contact.type` has a context of MedicinalProduct.contact based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -387,6 +388,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.contact.type</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -425,8 +429,9 @@
     <t>contact</t>
   </si>
   <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicinalProductDefinition.contact.contact` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `MedicinalProductDefinition.contact.contact` is will have a context of MedicinalProduct.contact based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
+    <t>Element `MedicinalProductDefinition.contact.contact` is part of an existing definition because parent element `MedicinalProductDefinition.contact` requires a cross-version extension.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicinalProductDefinition.contact.contact` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `MedicinalProductDefinition.contact.contact` has a context of MedicinalProduct.contact based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>Extension.extension:contact.id</t>
@@ -436,6 +441,9 @@
   </si>
   <si>
     <t>Extension.extension:contact.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.contact.contact</t>
   </si>
   <si>
     <t>Extension.extension:contact.value[x]</t>
@@ -1598,7 +1606,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1640,7 +1648,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1655,15 +1663,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1686,7 +1694,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1719,13 +1727,13 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
@@ -1743,7 +1751,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1755,21 +1763,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1801,7 +1809,7 @@
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1870,7 +1878,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -1973,7 +1981,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2078,7 +2086,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2121,7 +2129,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2163,7 +2171,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -2178,15 +2186,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2209,7 +2217,7 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>81</v>
@@ -2266,7 +2274,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2278,18 +2286,18 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2371,7 +2379,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>86</v>
@@ -2386,15 +2394,15 @@
         <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2417,13 +2425,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2474,7 +2482,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2486,10 +2494,10 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-MedicinalProductDefinition.contact.xlsx
+++ b/StructureDefinition-ext-R5-MedicinalProductDefinition.contact.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -413,7 +413,7 @@
     <t>Extra measures defined for a Medicinal Product, such as heightened reporting requirements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-medicinal-product-contact-type-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-medicinal-product-contact-type-for-R4</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -449,7 +449,7 @@
     <t>Extension.extension:contact.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole)
 </t>
   </si>
   <si>
@@ -811,7 +811,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="75.2265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="83.31640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="64.82421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-MedicinalProductDefinition.contact.xlsx
+++ b/StructureDefinition-ext-R5-MedicinalProductDefinition.contact.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="139">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -100,7 +100,7 @@
 *  R4B: `MedicinalProductDefinition.contact` 0..* `BackboneElement`
 *  R4: `MedicinalProduct.contact` 0..* `Reference(http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/PractitionerRole)`
 Following are the generation technical comments:
-Element `MedicinalProductDefinition.contact` has is mapped to FHIR R4 element `MedicinalProduct.contact`, but has no comparisons.</t>
+Element `MedicinalProductDefinition.contact` is mapped to FHIR R4 element `MedicinalProduct.contact` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -340,8 +340,7 @@
     <t>Allows the contact to be classified, for example QPPV, Pharmacovigilance Enquiry Information.</t>
   </si>
   <si>
-    <t>Element `MedicinalProductDefinition.contact.type` is part of an existing definition because parent element `MedicinalProductDefinition.contact` requires a cross-version extension.
-Element `MedicinalProductDefinition.contact.type` has a context of MedicinalProduct.contact based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
+    <t>Element `MedicinalProductDefinition.contact.type` has a context of MedicinalProduct.contact based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
     <t>Extension.extension:type.id</t>
@@ -388,9 +387,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.contact.type</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -413,7 +409,7 @@
     <t>Extra measures defined for a Medicinal Product, such as heightened reporting requirements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-medicinal-product-contact-type-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-medicinal-product-contact-type-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -429,8 +425,7 @@
     <t>contact</t>
   </si>
   <si>
-    <t>Element `MedicinalProductDefinition.contact.contact` is part of an existing definition because parent element `MedicinalProductDefinition.contact` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicinalProductDefinition.contact.contact` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `MedicinalProductDefinition.contact.contact` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `MedicinalProductDefinition.contact.contact` has a context of MedicinalProduct.contact based on following the parent source element upwards and mapping to `MedicinalProduct`.</t>
   </si>
   <si>
@@ -443,13 +438,10 @@
     <t>Extension.extension:contact.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-MedicinalProductDefinition.contact.contact</t>
-  </si>
-  <si>
     <t>Extension.extension:contact.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -811,7 +803,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="75.2265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="64.82421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="79.234375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1606,72 +1598,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1694,7 +1686,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1727,31 +1719,31 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="Y9" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Y9" t="s" s="2">
+      <c r="Z9" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="Z9" t="s" s="2">
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1763,21 +1755,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1809,7 +1801,7 @@
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1878,7 +1870,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -1981,7 +1973,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2086,7 +2078,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2129,7 +2121,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2171,30 +2163,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2217,7 +2209,7 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>81</v>
@@ -2274,7 +2266,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2286,18 +2278,18 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2379,30 +2371,30 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2425,13 +2417,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2482,7 +2474,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -2494,10 +2486,10 @@
         <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
